--- a/bin/vehicles_characteristics.xlsx
+++ b/bin/vehicles_characteristics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludov\Desktop\AdvancedSimulation\Labs\Lab4\EPA1352-G03-A4\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAA9DE3-5039-42D9-8153-ED5762EDF0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32BA1C5-F477-445F-9759-029535BF2A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="1980" windowWidth="17280" windowHeight="10920" xr2:uid="{83795327-496A-4E60-8969-0E7CBB35F861}"/>
+    <workbookView xWindow="-7620" yWindow="1770" windowWidth="17280" windowHeight="10920" xr2:uid="{83795327-496A-4E60-8969-0E7CBB35F861}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Large bus</t>
   </si>
@@ -62,16 +62,48 @@
   </si>
   <si>
     <t>Vehicle type</t>
+  </si>
+  <si>
+    <t>Average weight of people</t>
+  </si>
+  <si>
+    <t>Max Number of people</t>
+  </si>
+  <si>
+    <t>Average weight of max people to carry</t>
+  </si>
+  <si>
+    <t>https://4wheelerbd.com/car/tata/lpo-1316-bus-price-in-bd/</t>
+  </si>
+  <si>
+    <t>LPO 1316</t>
+  </si>
+  <si>
+    <t>model type</t>
+  </si>
+  <si>
+    <t>Tata LP909</t>
+  </si>
+  <si>
+    <t>https://buses.cardekho.com/buses/tata/lp-909-starbus/specifications</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,10 +126,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -105,8 +138,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1380403B-27FA-4551-A975-319E4B0DB954}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +468,7 @@
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -446,8 +481,20 @@
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -461,8 +508,24 @@
         <f>C2-B2</f>
         <v>9795</v>
       </c>
+      <c r="E2">
+        <v>52</v>
+      </c>
+      <c r="F2">
+        <v>52.3</v>
+      </c>
+      <c r="G2">
+        <f>F2*E2</f>
+        <v>2719.6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -477,7 +540,7 @@
         <v>18700</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -492,7 +555,7 @@
         <v>10770</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -503,11 +566,27 @@
         <v>9000</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D3:D6" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D6" si="0">C5-B5</f>
         <v>5700</v>
       </c>
+      <c r="E5">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>52.3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G3:G5" si="1">F5*E5</f>
+        <v>2144.2999999999997</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -523,7 +602,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{893A1A59-BCEA-4874-9F7D-90DBD5D61ABD}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{E0FF5093-7EFD-418A-9944-9F77BEA2E5AE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>